--- a/営業リスト入力テンプレート.xlsx
+++ b/営業リスト入力テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishisho36/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{320D2AD1-F68D-1746-B9FF-128934544970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C51D95C-41D3-7449-9D01-D9A720B0CF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="880" windowWidth="28300" windowHeight="16460" xr2:uid="{A3BD16D9-51B1-D94E-99A3-266551399411}"/>
+    <workbookView xWindow="6740" yWindow="1540" windowWidth="28300" windowHeight="16460" xr2:uid="{A3BD16D9-51B1-D94E-99A3-266551399411}"/>
   </bookViews>
   <sheets>
     <sheet name="営業リスト" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>企業名</t>
   </si>
@@ -212,6 +212,10 @@
   </si>
   <si>
     <t>クライアント名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -540,6 +544,23 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業種（産業分類）</t>
+    <rPh sb="3" eb="7">
+      <t xml:space="preserve">サンギョウブンルイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業種（自由形式）</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ジユウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ケイシキ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -842,17 +863,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="212">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="247">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -885,6 +896,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -972,6 +1023,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -987,6 +1048,310 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3216,9 +3581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983EB314-EC2B-1C49-BF32-F7AD5DA5E2EC}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>
@@ -3228,14 +3595,14 @@
     <col min="4" max="6" width="9.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="34.5703125" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="5"/>
-    <col min="9" max="9" width="21.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="5"/>
-    <col min="12" max="12" width="77.5703125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="10.7109375" style="5"/>
+    <col min="9" max="10" width="21.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="5"/>
+    <col min="13" max="13" width="77.5703125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="9" t="s">
         <v>50</v>
       </c>
@@ -3245,20 +3612,21 @@
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
-      <c r="L1" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="K1" s="10"/>
+      <c r="M1" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -3266,18 +3634,19 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-      <c r="L2" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="K2" s="10"/>
+      <c r="M2" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
@@ -3285,16 +3654,17 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1">
+      <c r="K3" s="10"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
@@ -3302,21 +3672,22 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H4" s="22" t="str">
-        <f>"右欄にご入力ください。"&amp;CHAR(10)&amp;IF(IFERROR(SEARCH("##COMPANY##",L2),-1)&lt;0,"送付文面に、##COMPANY##がありません"&amp;CHAR(10),"")&amp;IF(IFERROR(SEARCH("##TO##",L2),-1)&lt;0,"送付文面に、##TO##がありません"&amp;CHAR(10),"")&amp;IF(IFERROR(SEARCH("##URL##",L2),-1)&lt;0,"送付文面に、##URL##がありません","")</f>
+        <f>"右欄にご入力ください。"&amp;CHAR(10)&amp;IF(IFERROR(SEARCH("##COMPANY##",M2),-1)&lt;0,"送付文面に、##COMPANY##がありません"&amp;CHAR(10),"")&amp;IF(IFERROR(SEARCH("##TO##",M2),-1)&lt;0,"送付文面に、##TO##がありません"&amp;CHAR(10),"")&amp;IF(IFERROR(SEARCH("##URL##",M2),-1)&lt;0,"送付文面に、##URL##がありません","")</f>
         <v xml:space="preserve">右欄にご入力ください。
 </v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
-      <c r="L4" s="15"/>
-      <c r="N4" s="27"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="K4" s="22"/>
+      <c r="M4" s="15"/>
+      <c r="O4" s="27"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
@@ -3327,11 +3698,12 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" ht="49" customHeight="1">
+      <c r="K5" s="23"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="49" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
@@ -3342,24 +3714,26 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="K6"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
       <c r="G7" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J7" s="17"/>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="K7" s="17"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="11" t="str" cm="1">
-        <f t="array" ref="A8:J8">定義!A1:J1</f>
+        <f t="array" ref="A8:K8">定義!A1:K1</f>
         <v>必須</v>
       </c>
       <c r="B8" s="11" t="str">
@@ -3384,16 +3758,19 @@
         <v>省略可</v>
       </c>
       <c r="I8" s="11" t="str">
-        <v>必須</v>
+        <v>省略可</v>
       </c>
       <c r="J8" s="11" t="str">
         <v>必須</v>
       </c>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" ht="17" customHeight="1">
+      <c r="K8" s="11" t="str">
+        <v>必須</v>
+      </c>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" ht="17" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -3402,13 +3779,14 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" ht="43" customHeight="1">
+      <c r="K9" s="24"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" ht="43" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>0</v>
       </c>
@@ -3419,29 +3797,32 @@
         <v>2</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="J10" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -3458,19 +3839,19 @@
         <v>11</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
@@ -3487,15 +3868,18 @@
       <c r="G12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="I12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
@@ -3508,19 +3892,19 @@
         <v>1959</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
@@ -3538,19 +3922,19 @@
         <v>11</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
@@ -3568,19 +3952,19 @@
         <v>11</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>10</v>
@@ -3597,17 +3981,20 @@
       <c r="G16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="I16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>10</v>
@@ -3624,17 +4011,20 @@
       <c r="G17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="I17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="5">
         <v>1000</v>
@@ -3645,17 +4035,20 @@
       <c r="F18" s="5">
         <v>1959</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="I18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
@@ -3672,17 +4065,20 @@
       <c r="G19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="I19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>10</v>
@@ -3699,17 +4095,20 @@
       <c r="G20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>10</v>
@@ -3726,17 +4125,17 @@
       <c r="G21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="K21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>10</v>
@@ -3750,17 +4149,17 @@
       <c r="G22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>48</v>
@@ -3777,75 +4176,75 @@
       <c r="G23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="K23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L2:L23"/>
+    <mergeCell ref="M2:M23"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="H4:K5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D11:F2011">
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="29" priority="12">
       <formula>NOT(OR(ISNUMBER(D11),$A11=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A2011">
-    <cfRule type="expression" dxfId="22" priority="11">
-      <formula>AND(_xlfn.TEXTJOIN(",",TRUE,B11:J11)&lt;&gt;"",A11="")</formula>
+    <cfRule type="expression" dxfId="28" priority="11">
+      <formula>AND(_xlfn.TEXTJOIN(",",TRUE,B11:K11)&lt;&gt;"",A11="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F2011">
-    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
       <formula>AND($F11&lt;500,$A11&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B6">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>B1=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>H1=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>LEN($H$4)&gt;20</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J11" r:id="rId1" display="https://www.msn.com/" xr:uid="{B8BB2E9D-1ACC-1C4F-A815-FAD44C3FF2D8}"/>
-    <hyperlink ref="J13" r:id="rId2" display="https://www.msn.com/" xr:uid="{D0B61993-EFF7-4F4C-BC53-8DA9B1E993E8}"/>
-    <hyperlink ref="J14" r:id="rId3" display="https://www.msn.com/" xr:uid="{6BF38FF1-FF58-E74C-8E2B-5365AA4FD195}"/>
-    <hyperlink ref="J15" r:id="rId4" display="https://www.msn.com/" xr:uid="{8C387A5E-0160-2449-B247-7F37FC5AA73F}"/>
-    <hyperlink ref="J16" r:id="rId5" display="https://www.msn.com/" xr:uid="{4958A425-FD51-9E4B-9EA3-02A3CA8471AA}"/>
-    <hyperlink ref="J17" r:id="rId6" display="https://www.msn.com/" xr:uid="{AE1142D9-E8B2-6946-9D47-ACC233ABF3FB}"/>
-    <hyperlink ref="J18" r:id="rId7" display="https://www.msn.com/" xr:uid="{196F29AD-9D8C-CB4C-B66C-72EDC9D5E8EC}"/>
-    <hyperlink ref="J19" r:id="rId8" display="https://www.msn.com/" xr:uid="{13D90C7F-D648-CB4C-BBB0-ADE2D9CB403D}"/>
-    <hyperlink ref="J20" r:id="rId9" display="https://www.msn.com/" xr:uid="{BD238E2C-B358-EC43-9C7C-160A0227AEB8}"/>
-    <hyperlink ref="J21" r:id="rId10" display="https://www.msn.com/" xr:uid="{38FB891E-2311-4D48-A5B6-EC7C4C783999}"/>
-    <hyperlink ref="J22" r:id="rId11" display="https://www.msn.com/" xr:uid="{543C1191-3A2C-9344-95DB-0BE0331F0092}"/>
-    <hyperlink ref="J23" r:id="rId12" display="https://www.msn.com/" xr:uid="{4517ABBC-5BFB-5D45-A7C5-D0007A864F7E}"/>
+    <hyperlink ref="K11" r:id="rId1" display="https://www.msn.com/" xr:uid="{B8BB2E9D-1ACC-1C4F-A815-FAD44C3FF2D8}"/>
+    <hyperlink ref="K13" r:id="rId2" display="https://www.msn.com/" xr:uid="{D0B61993-EFF7-4F4C-BC53-8DA9B1E993E8}"/>
+    <hyperlink ref="K14" r:id="rId3" display="https://www.msn.com/" xr:uid="{6BF38FF1-FF58-E74C-8E2B-5365AA4FD195}"/>
+    <hyperlink ref="K15" r:id="rId4" display="https://www.msn.com/" xr:uid="{8C387A5E-0160-2449-B247-7F37FC5AA73F}"/>
+    <hyperlink ref="K16" r:id="rId5" display="https://www.msn.com/" xr:uid="{4958A425-FD51-9E4B-9EA3-02A3CA8471AA}"/>
+    <hyperlink ref="K17" r:id="rId6" display="https://www.msn.com/" xr:uid="{AE1142D9-E8B2-6946-9D47-ACC233ABF3FB}"/>
+    <hyperlink ref="K18" r:id="rId7" display="https://www.msn.com/" xr:uid="{196F29AD-9D8C-CB4C-B66C-72EDC9D5E8EC}"/>
+    <hyperlink ref="K19" r:id="rId8" display="https://www.msn.com/" xr:uid="{13D90C7F-D648-CB4C-BBB0-ADE2D9CB403D}"/>
+    <hyperlink ref="K20" r:id="rId9" display="https://www.msn.com/" xr:uid="{BD238E2C-B358-EC43-9C7C-160A0227AEB8}"/>
+    <hyperlink ref="K21" r:id="rId10" display="https://www.msn.com/" xr:uid="{38FB891E-2311-4D48-A5B6-EC7C4C783999}"/>
+    <hyperlink ref="K22" r:id="rId11" display="https://www.msn.com/" xr:uid="{543C1191-3A2C-9344-95DB-0BE0331F0092}"/>
+    <hyperlink ref="K23" r:id="rId12" display="https://www.msn.com/" xr:uid="{4517ABBC-5BFB-5D45-A7C5-D0007A864F7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3911,6 +4310,51 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{2035CD12-AEF2-7D46-9080-B16368D413D1}">
+            <xm:f>AND(K11="",定義!L$1="必須",$A11&lt;&gt;"")</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{9D5FF161-74DD-AF4B-B432-4C42ED98F8A8}">
+            <xm:f>AND(K11="",定義!L$1&lt;&gt;"必須",$A11&lt;&gt;"")</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K11:K2011</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="18" id="{24E94D3B-0906-DB4A-97EF-10F4BFB97B28}">
+            <xm:f>AND($A11&lt;&gt;"",定義!J$1="必須",$J11="",$I11="")</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J11:J2011</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="19" id="{2035CD12-AEF2-7D46-9080-B16368D413D1}">
             <xm:f>AND(C11="",定義!C$1="必須",$A11&lt;&gt;"")</xm:f>
             <x14:dxf>
               <font>
@@ -3923,7 +4367,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{9D5FF161-74DD-AF4B-B432-4C42ED98F8A8}">
+          <x14:cfRule type="expression" priority="20" id="{9D5FF161-74DD-AF4B-B432-4C42ED98F8A8}">
             <xm:f>AND(C11="",定義!C$1&lt;&gt;"必須",$A11&lt;&gt;"")</xm:f>
             <x14:dxf>
               <font>
@@ -3936,17 +4380,17 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J11:J2011 G11:G2011 C11:C2011</xm:sqref>
+          <xm:sqref>G11:G2011 C11:C2011</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17F5AE3D-09F1-8E46-A7CF-D3FC33B33644}">
           <x14:formula1>
             <xm:f>定義!$I$3:$I$22</xm:f>
           </x14:formula1>
-          <xm:sqref>I11:I15</xm:sqref>
+          <xm:sqref>I11:J19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71CDF850-3E25-A144-BAEB-9AB69628556B}">
           <x14:formula1>
@@ -3968,51 +4412,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1FC458-7F3E-E94C-84D5-E4833610A91F}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
         <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4023,10 +4470,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -4040,293 +4487,314 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+        <v>56</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+        <v>57</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+        <v>58</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>59</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+        <v>60</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+        <v>61</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
+        <v>62</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:10">
       <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:10">
       <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:10">
       <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:10">
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:10">
       <c r="B28" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="2:2">
@@ -4336,18 +4804,18 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:J1" xr:uid="{5277ED82-77B5-8D45-8D4E-5C71B94B55D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:K1" xr:uid="{5277ED82-77B5-8D45-8D4E-5C71B94B55D1}">
       <formula1>"省略可,必須"</formula1>
     </dataValidation>
   </dataValidations>
